--- a/Research Park Electricity bills.xlsx
+++ b/Research Park Electricity bills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npace\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damien Pikel\Documents\GitHub\Virtual-Power-Plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984F590-FA8F-4D10-B64F-D62F96378A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF22F5-0CB3-43C8-A6D3-E5BA13B13D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82F3AFC6-E2D6-4DDD-B2AF-CF575AB9EDAC}"/>
+    <workbookView xWindow="-16320" yWindow="-7290" windowWidth="16440" windowHeight="29040" xr2:uid="{82F3AFC6-E2D6-4DDD-B2AF-CF575AB9EDAC}"/>
   </bookViews>
   <sheets>
     <sheet name="totals" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,48 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -229,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +304,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -335,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,23 +412,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,8 +430,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -450,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -556,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -698,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -706,43 +753,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7D71B1-040D-448F-854D-AC95F33265B9}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" s="19" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="16" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -758,8 +813,15 @@
         <f>(Sheet1!D3+Sheet1!H3)/2</f>
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3">
+        <f>AVERAGE(B11,B23,B35,B47)</f>
+        <v>53425.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -775,8 +837,15 @@
         <f>(Sheet1!D4+Sheet1!H4)/2</f>
         <v>0.22999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3">
+        <f>AVERAGE(B12,B24,B36,B48)</f>
+        <v>49977.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -792,8 +861,15 @@
         <f>(Sheet1!D5+Sheet1!H5)/2</f>
         <v>0.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="3">
+        <f>AVERAGE(B13,B25,B37,B49)</f>
+        <v>56568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -809,8 +885,15 @@
         <f>(Sheet1!D6+Sheet1!H6)/2</f>
         <v>0.155</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3">
+        <f>AVERAGE(B14,B26,B38,B50)</f>
+        <v>49531.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -826,8 +909,15 @@
         <f>(Sheet1!D7+Sheet1!H7)/2</f>
         <v>0.28500000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3">
+        <f>AVERAGE(B15,B27,B39,B51,B3)</f>
+        <v>64092.800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -843,8 +933,15 @@
         <f>(Sheet1!D8+Sheet1!H8)/2</f>
         <v>0.215</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F14" si="0">AVERAGE(B16,B28,B40,B52,B4)</f>
+        <v>88062.399999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -860,8 +957,15 @@
         <f>(Sheet1!D9+Sheet1!H9)/2</f>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>137115.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -877,8 +981,15 @@
         <f>(Sheet1!D10+Sheet1!H10)/2</f>
         <v>0.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>105491.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,8 +1005,15 @@
         <f>(Sheet1!D11+Sheet1!H11)/2</f>
         <v>0.42</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>79462.600000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -911,8 +1029,15 @@
         <f>(Sheet1!D12+Sheet1!H12)/2</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3">
+        <f>AVERAGE(B20,B32,B44,B8)</f>
+        <v>108207.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -928,8 +1053,15 @@
         <f>(Sheet1!D13+Sheet1!H13)/2</f>
         <v>0.37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3">
+        <f>AVERAGE(B21,B33,B45,B9)</f>
+        <v>81892.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -945,8 +1077,15 @@
         <f>(Sheet1!D14+Sheet1!H14)/2</f>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F13:F14" si="1">AVERAGE(B22,B34,B46,B10)</f>
+        <v>57238.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -963,7 +1102,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1647,6 +1786,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1672,18 +1812,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3090,262 +3230,206 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
